--- a/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/8 Matriz de Riesgos/1 MATRIZ  RIESGOS DE NEGOCIO.xlsx
+++ b/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/8 Matriz de Riesgos/1 MATRIZ  RIESGOS DE NEGOCIO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base\2 ESTRATEGIA Y PLAN DE AUDITORIA\8 Matriz de Riesgos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\2 ESTRATEGIA Y PLAN DE AUDITORIA\8 Matriz de Riesgos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE7AF8F-B527-4C7B-87F0-6E9FA0885491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AB66FB-28BF-416A-A218-6DFD4E78ABDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -383,7 +383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -468,6 +468,12 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1043,7 +1049,7 @@
   <dimension ref="A3:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,20 +1081,22 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:16" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:16" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="E7" s="15" t="s">
+      <c r="D7" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="2"/>
@@ -1096,11 +1104,11 @@
     </row>
     <row r="8" spans="1:16" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="2"/>
@@ -1109,11 +1117,11 @@
     <row r="9" spans="1:16" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
       <c r="I9" s="2"/>
@@ -1520,6 +1528,12 @@
       <c r="I52" s="26"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1527,7 +1541,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="Control 1">
+        <control shapeId="1028" r:id="rId4" name="Control 4">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -1547,13 +1561,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="Control 1"/>
+        <control shapeId="1028" r:id="rId4" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId6" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId5">
+        <control shapeId="1027" r:id="rId6" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -1572,13 +1586,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId6" name="Control 2"/>
+        <control shapeId="1027" r:id="rId6" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId7" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId5">
+        <control shapeId="1026" r:id="rId8" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -1597,13 +1611,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId7" name="Control 3"/>
+        <control shapeId="1026" r:id="rId8" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId8" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId9">
+        <control shapeId="1025" r:id="rId9" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -1622,7 +1636,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId8" name="Control 4"/>
+        <control shapeId="1025" r:id="rId9" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
